--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMWork StructuresV1.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMWork StructuresV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7455" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7455" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index Page" sheetId="75" r:id="rId1"/>
@@ -3499,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3632,7 +3632,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="69" customFormat="1" ht="12.75">
-      <c r="A8" s="79"/>
+      <c r="A8" s="93">
+        <v>40909</v>
+      </c>
       <c r="B8" s="79"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -4964,7 +4966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N897" sqref="N897"/>
     </sheetView>
